--- a/Assets/Document/StateMachine.xlsx
+++ b/Assets/Document/StateMachine.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Project\AI_FSM.git\trunk\Assets\Document\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="600" yWindow="390" windowWidth="19155" windowHeight="7320"/>
   </bookViews>
@@ -24,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="23">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,44 +85,35 @@
     <t>SM010003</t>
   </si>
   <si>
-    <t>SM010004</t>
-  </si>
-  <si>
-    <t>SM010005</t>
-  </si>
-  <si>
-    <t>SM010006</t>
-  </si>
-  <si>
-    <t>SM010007</t>
-  </si>
-  <si>
-    <t>SM010008</t>
-  </si>
-  <si>
-    <t>SM010009</t>
-  </si>
-  <si>
-    <t>SM010010</t>
-  </si>
-  <si>
-    <t>IDLE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SEARCH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PREPARE_ATK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ATK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MOVE</t>
+    <t>NONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IdleState</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AtkState</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PrepareAtkState</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoveState</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeathState</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RangeAtkState</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoveAtkState</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -182,6 +178,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -222,8 +221,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表格1" displayName="表格1" ref="A2:K12" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="A2:K12"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表格1" displayName="表格1" ref="A2:K5" tableType="xml" totalsRowShown="0" connectionId="1">
+  <autoFilter ref="A2:K5"/>
   <tableColumns count="11">
     <tableColumn id="1" uniqueName="ID" name="ID">
       <xmlColumnPr mapId="1" xpath="/ArrayOfStateMachineData/StateMachineData/ID" xmlDataType="integer"/>
@@ -306,7 +305,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,7 +340,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -550,17 +549,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K12"/>
+  <dimension ref="A2:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.625" customWidth="1"/>
-    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
     <col min="5" max="10" width="11.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.625" bestFit="1" customWidth="1"/>
@@ -606,34 +605,34 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="I3" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="J3" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="K3" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -641,34 +640,34 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="I4" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="J4" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="K4" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -676,286 +675,42 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="I5" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="J5" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="K5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6" t="s">
-        <v>26</v>
-      </c>
-      <c r="K6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" t="s">
-        <v>26</v>
-      </c>
-      <c r="I8" t="s">
-        <v>26</v>
-      </c>
-      <c r="J8" t="s">
-        <v>26</v>
-      </c>
-      <c r="K8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I9" t="s">
-        <v>26</v>
-      </c>
-      <c r="J9" t="s">
-        <v>26</v>
-      </c>
-      <c r="K9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" t="s">
-        <v>26</v>
-      </c>
-      <c r="I10" t="s">
-        <v>26</v>
-      </c>
-      <c r="J10" t="s">
-        <v>26</v>
-      </c>
-      <c r="K10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I11" t="s">
-        <v>26</v>
-      </c>
-      <c r="J11" t="s">
-        <v>26</v>
-      </c>
-      <c r="K11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" t="s">
-        <v>26</v>
-      </c>
-      <c r="H12" t="s">
-        <v>26</v>
-      </c>
-      <c r="I12" t="s">
-        <v>26</v>
-      </c>
-      <c r="J12" t="s">
-        <v>26</v>
-      </c>
-      <c r="K12" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
